--- a/review.xlsx
+++ b/review.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="2820" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="共通问题" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>只能用两个异常：Biz和App。包裹异常再抛出用App，业务中断用Biz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块独立部署运行，那么对于重复的类（不是工具类）如何处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸如各个模块都有BaseAction，且里面的代码写的都一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -519,6 +527,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="4110" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="共通问题" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>里面至少应该重载_doPreProcess方法，完成SESSION处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每个独立运行的项目（或模块），要定义自己的BaseAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实体类名和里面的字段都生成为驼峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,27 +44,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tools中，是否需要两个异常类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果要，那么每个模块里面非特殊情况就不需要了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异常使用不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只能用两个异常：Biz和App。包裹异常再抛出用App，业务中断用Biz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各模块独立部署运行，那么对于重复的类（不是工具类）如何处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸如各个模块都有BaseAction，且里面的代码写的都一样</t>
+    <t>只能用两个异常：BusinessException和AppSystemException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者纳入fdwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanUtil和Base64是否需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个方法都要写测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用"类名"+Test命名，里面的方法与被测试方法同名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“throw new ”后面必须是AppSystemException
+Action类，只能使用BusinessException（除非有必须处理的try catch）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期代码核查检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个方法都要有处理逻辑注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 " 1. 2. 3. " 写出处理逻辑，并且，方法中每段代码要写上对应的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天检查，且可以运行成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,15 +469,16 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" style="4" customWidth="1"/>
-    <col min="4" max="15" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="32.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="70.81640625" style="4" customWidth="1"/>
+    <col min="5" max="15" width="8.7265625" style="4"/>
     <col min="16" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -469,12 +487,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -497,42 +517,51 @@
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/review.xlsx
+++ b/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="6690" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="共通问题" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>每个模块的包名要和模块名匹配上</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +86,62 @@
   </si>
   <si>
     <t>每天检查，且可以运行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckWaitFileThread作用是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前，必须定义了日切方式启动control，这个要修改掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对频率的调度类型可以是依赖和T等3种方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释说明加入ER图中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要和王鹏程确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业表增加后缀 _cur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批前/批后在新版本中是否支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度类型的代码项值修改为更有意义的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：Tplus1 , Tplus0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主程序结构修正（不是大循环中反复读库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个方法编写测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要独立造数据，不能互相依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,11 +190,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +228,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,15 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.26953125" style="4" customWidth="1"/>
     <col min="3" max="3" width="37.90625" style="4" customWidth="1"/>
     <col min="4" max="4" width="70.81640625" style="4" customWidth="1"/>
@@ -483,17 +554,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -509,62 +578,144 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="9270" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="共通问题" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>每个模块的包名要和模块名匹配上</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>要独立造数据，不能互相依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加当前用户能访问哪些功能的检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在BaseAction里面做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如OTHER_ERROR被定义成了"{0}用户名失败｛1｝"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月：ExceptionEnum内容优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commons中的每个方法都要写出测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码行宽度不能超过100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,10 +254,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,9 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -627,94 +653,120 @@
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="10560" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="共通问题" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>每个模块的包名要和模块名匹配上</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,95 +77,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每天检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天检查，且可以运行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckWaitFileThread作用是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前，必须定义了日切方式启动control，这个要修改掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对频率的调度类型可以是依赖和T等3种方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释说明加入ER图中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要和王鹏程确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业表增加后缀 _cur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批前/批后在新版本中是否支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度类型的代码项值修改为更有意义的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：Tplus1 , Tplus0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主程序结构修正（不是大循环中反复读库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个方法编写测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要独立造数据，不能互相依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加当前用户能访问哪些功能的检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在BaseAction里面做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如OTHER_ERROR被定义成了"{0}用户名失败｛1｝"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月：ExceptionEnum内容优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commons中的每个方法都要写出测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码行宽度不能超过100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用 " 1. 2. 3. " 写出处理逻辑，并且，方法中每段代码要写上对应的编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每天检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天检查，且可以运行成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckWaitFileThread作用是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前，必须定义了日切方式启动control，这个要修改掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对频率的调度类型可以是依赖和T等3种方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解释说明加入ER图中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要和王鹏程确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业表增加后缀 _cur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批前/批后在新版本中是否支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度类型的代码项值修改为更有意义的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：Tplus1 , Tplus0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主程序结构修正（不是大循环中反复读库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为每个方法编写测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要独立造数据，不能互相依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加当前用户能访问哪些功能的检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在BaseAction里面做？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如OTHER_ERROR被定义成了"{0}用户名失败｛1｝"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月：ExceptionEnum内容优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commons中的每个方法都要写出测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码行宽度不能超过100</t>
+    <t>每个方法的每个参数都要写注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写明3点：含义，取值范围，不允许值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -623,92 +631,95 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -716,17 +727,15 @@
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>21</v>
@@ -736,37 +745,47 @@
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="11955" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="共通问题" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>每个模块的包名要和模块名匹配上</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>写明3点：含义，取值范围，不允许值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业表的主键改成long，字段名改为_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,23 +575,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.90625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="70.81640625" style="4" customWidth="1"/>
-    <col min="5" max="15" width="8.7265625" style="4"/>
-    <col min="16" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="32.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="70.875" style="4" customWidth="1"/>
+    <col min="5" max="15" width="8.75" style="4"/>
+    <col min="16" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -610,7 +614,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -618,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -626,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -637,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
@@ -648,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -659,7 +663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -670,12 +674,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -683,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
@@ -691,7 +695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -699,12 +703,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -716,7 +720,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="7" t="s">
         <v>22</v>
@@ -724,7 +728,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="7" t="s">
         <v>18</v>
@@ -732,60 +736,68 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
